--- a/data/trans_orig/VUL_MENTALCOM-Clase-trans_orig.xlsx
+++ b/data/trans_orig/VUL_MENTALCOM-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común (ansiedad/depresión) en País Vasco</t>
+          <t>Enfermedad mental común (ansiedad/depresión) en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3189,7 +3189,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común (ansiedad/depresión) en Andalucia</t>
+          <t>Enfermedad mental común (ansiedad/depresión) en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5832,7 +5832,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común (ansiedad/depresión) en C.Valenciana</t>
+          <t>Enfermedad mental común (ansiedad/depresión) en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8475,7 +8475,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común (ansiedad/depresión) en Barcelona</t>
+          <t>Enfermedad mental común (ansiedad/depresión) en Barcelona (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/VUL_MENTALCOM-Clase-trans_orig.xlsx
+++ b/data/trans_orig/VUL_MENTALCOM-Clase-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>4720</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2904</t>
+          <t>2872</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6644</t>
+          <t>6862</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5798</t>
+          <t>5978</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4103</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8047</t>
+          <t>8380</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>10370</t>
+          <t>10699</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>8003</t>
+          <t>8247</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>13489</t>
+          <t>13966</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,22%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>140620</t>
+          <t>157496</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>138548</t>
+          <t>155354</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>142288</t>
+          <t>159344</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,85%</t>
+          <t>97,09%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,42%</t>
+          <t>95,77%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,0%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>137406</t>
+          <t>162881</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>135157</t>
+          <t>160479</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>139101</t>
+          <t>164742</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>95,95%</t>
+          <t>96,46%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>94,38%</t>
+          <t>95,04%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,13%</t>
+          <t>97,56%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>278026</t>
+          <t>320376</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>274907</t>
+          <t>317109</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>280393</t>
+          <t>322828</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>96,4%</t>
+          <t>96,77%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>95,32%</t>
+          <t>95,78%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,22%</t>
+          <t>97,51%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>145192</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145192</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>145192</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>288396</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>288396</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>288396</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3108</t>
+          <t>3520</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1835</t>
+          <t>2191</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5183</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,32 +1114,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5378</t>
+          <t>6408</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>4214</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7554</t>
+          <t>8748</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>8486</t>
+          <t>9928</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>6309</t>
+          <t>7555</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>11234</t>
+          <t>13156</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>6,18%</t>
         </is>
       </c>
     </row>
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>77964</t>
+          <t>86748</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>75889</t>
+          <t>84597</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>79237</t>
+          <t>88077</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>96,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,61%</t>
+          <t>93,72%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,74%</t>
+          <t>97,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>103575</t>
+          <t>116130</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>101399</t>
+          <t>113790</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>105292</t>
+          <t>118324</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>95,06%</t>
+          <t>94,77%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,07%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,64%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>181539</t>
+          <t>202878</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>178791</t>
+          <t>199650</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>183716</t>
+          <t>205251</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,53%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
+          <t>93,82%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>96,45%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81072</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81072</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81072</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>108953</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>108953</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>108953</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>190025</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>190025</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>190025</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1422,32 +1422,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7700</t>
+          <t>6306</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5482</t>
+          <t>4418</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10364</t>
+          <t>8633</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1457,32 +1457,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6017</t>
+          <t>6575</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4184</t>
+          <t>4579</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8297</t>
+          <t>8817</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1492,32 +1492,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>13716</t>
+          <t>12881</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10776</t>
+          <t>10396</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>17457</t>
+          <t>15921</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>7,4%</t>
         </is>
       </c>
     </row>
@@ -1535,32 +1535,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>155070</t>
+          <t>147053</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>152406</t>
+          <t>144726</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>157288</t>
+          <t>148941</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,27%</t>
+          <t>95,89%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>94,37%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,63%</t>
+          <t>97,12%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1570,32 +1570,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>57175</t>
+          <t>55360</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>54895</t>
+          <t>53118</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>59008</t>
+          <t>57356</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>90,48%</t>
+          <t>89,38%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>86,87%</t>
+          <t>85,76%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>93,38%</t>
+          <t>92,61%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>212246</t>
+          <t>202413</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>208505</t>
+          <t>199373</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>215186</t>
+          <t>204898</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>93,93%</t>
+          <t>94,02%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>92,27%</t>
+          <t>92,6%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>95,17%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>162770</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>162770</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>162770</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63192</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>63192</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>63192</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>225962</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>225962</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>225962</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1765,32 +1765,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9472</t>
+          <t>9804</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6866</t>
+          <t>6921</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12420</t>
+          <t>12530</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1800,32 +1800,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14164</t>
+          <t>13307</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11227</t>
+          <t>10762</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17641</t>
+          <t>16615</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>23636</t>
+          <t>23112</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>19982</t>
+          <t>19490</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>28560</t>
+          <t>27724</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>7,84%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +1878,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>160558</t>
+          <t>160688</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>157610</t>
+          <t>157962</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>163164</t>
+          <t>163571</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,43%</t>
+          <t>94,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,7%</t>
+          <t>92,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>95,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,32 +1913,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>163559</t>
+          <t>169721</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>160082</t>
+          <t>166413</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>166496</t>
+          <t>172266</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>92,03%</t>
+          <t>92,73%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>90,07%</t>
+          <t>90,92%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>94,12%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>324117</t>
+          <t>330408</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>319193</t>
+          <t>325796</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>327771</t>
+          <t>334030</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>93,2%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,79%</t>
+          <t>92,16%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,25%</t>
+          <t>94,49%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170030</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170030</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170030</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>177723</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>177723</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>177723</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>347753</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>347753</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>347753</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2108,32 +2108,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2189</t>
+          <t>1582</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>746</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3988</t>
+          <t>2814</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2143,32 +2143,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>10819</t>
+          <t>11565</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>8431</t>
+          <t>8983</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>13718</t>
+          <t>14433</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2178,32 +2178,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>13008</t>
+          <t>13147</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>10206</t>
+          <t>10447</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>16345</t>
+          <t>16427</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>8,25%</t>
         </is>
       </c>
     </row>
@@ -2221,32 +2221,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>74151</t>
+          <t>72211</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>72352</t>
+          <t>70979</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>75216</t>
+          <t>73047</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,13%</t>
+          <t>97,86%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,78%</t>
+          <t>96,19%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,53%</t>
+          <t>98,99%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2256,32 +2256,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>121822</t>
+          <t>113687</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>118923</t>
+          <t>110819</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>124210</t>
+          <t>116269</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>91,84%</t>
+          <t>90,77%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>89,66%</t>
+          <t>88,48%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>93,64%</t>
+          <t>92,83%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2291,32 +2291,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>195974</t>
+          <t>185898</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>192637</t>
+          <t>182618</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>198776</t>
+          <t>188598</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>93,78%</t>
+          <t>93,39%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>92,18%</t>
+          <t>91,75%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,12%</t>
+          <t>94,75%</t>
         </is>
       </c>
     </row>
@@ -2334,17 +2334,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76340</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76340</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76340</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2369,17 +2369,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>132641</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>132641</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>132641</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2404,17 +2404,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>208982</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>208982</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>208982</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2451,32 +2451,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>1009</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>348</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2486,32 +2486,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10853</t>
+          <t>9862</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8403</t>
+          <t>7708</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>14069</t>
+          <t>12918</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2521,32 +2521,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>11581</t>
+          <t>10871</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>8623</t>
+          <t>8230</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>14673</t>
+          <t>14036</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>7,9%</t>
         </is>
       </c>
     </row>
@@ -2564,32 +2564,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>44275</t>
+          <t>54164</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>43062</t>
+          <t>52287</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>44814</t>
+          <t>54825</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,38%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>95,68%</t>
+          <t>94,77%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,58%</t>
+          <t>99,37%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2599,32 +2599,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>107050</t>
+          <t>112537</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>103834</t>
+          <t>109481</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>109500</t>
+          <t>114691</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>90,8%</t>
+          <t>91,94%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>88,07%</t>
+          <t>89,45%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>92,87%</t>
+          <t>93,7%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2634,32 +2634,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>151326</t>
+          <t>166700</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>148234</t>
+          <t>163535</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>154284</t>
+          <t>169341</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>92,89%</t>
+          <t>93,88%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>90,99%</t>
+          <t>92,1%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>94,71%</t>
+          <t>95,37%</t>
         </is>
       </c>
     </row>
@@ -2677,17 +2677,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45004</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45004</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>45004</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2712,17 +2712,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>117903</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>117903</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>117903</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2747,17 +2747,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2794,32 +2794,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>27769</t>
+          <t>26942</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>23346</t>
+          <t>22965</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>33061</t>
+          <t>31289</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2829,32 +2829,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>53029</t>
+          <t>53695</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>47076</t>
+          <t>47293</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>60034</t>
+          <t>60110</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2864,32 +2864,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>80797</t>
+          <t>80637</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>73436</t>
+          <t>73504</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>88951</t>
+          <t>88517</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>5,94%</t>
         </is>
       </c>
     </row>
@@ -2907,32 +2907,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>652639</t>
+          <t>678359</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>647347</t>
+          <t>674012</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>657062</t>
+          <t>682336</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>96,57%</t>
+          <t>96,74%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2942,32 +2942,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>690587</t>
+          <t>730316</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>683582</t>
+          <t>723901</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>696540</t>
+          <t>736718</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>92,87%</t>
+          <t>93,15%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>91,93%</t>
+          <t>92,33%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>93,67%</t>
+          <t>93,97%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2977,32 +2977,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1343228</t>
+          <t>1408675</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1335074</t>
+          <t>1400795</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1350589</t>
+          <t>1415808</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>94,33%</t>
+          <t>94,59%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>93,75%</t>
+          <t>94,06%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>95,06%</t>
         </is>
       </c>
     </row>
@@ -3020,17 +3020,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>680408</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>680408</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>680408</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3055,17 +3055,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>743616</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>743616</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>743616</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3090,17 +3090,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1424025</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1424025</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1424025</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10605</t>
+          <t>11046</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27144</t>
+          <t>26910</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3399,12 +3399,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3419,12 +3419,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>16209</t>
+          <t>17512</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>33291</t>
+          <t>34153</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3454,12 +3454,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>32263</t>
+          <t>32541</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>55730</t>
+          <t>56313</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3469,12 +3469,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>8,47%</t>
         </is>
       </c>
     </row>
@@ -3497,12 +3497,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>338707</t>
+          <t>338941</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>355246</t>
+          <t>354805</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3512,12 +3512,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,58%</t>
+          <t>92,64%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,1%</t>
+          <t>96,98%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3532,12 +3532,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>265610</t>
+          <t>264748</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>282692</t>
+          <t>281389</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3547,12 +3547,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>88,86%</t>
+          <t>88,57%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>94,58%</t>
+          <t>94,14%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3567,12 +3567,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>609022</t>
+          <t>608439</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>632489</t>
+          <t>632211</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3582,12 +3582,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>91,62%</t>
+          <t>91,53%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,15%</t>
+          <t>95,1%</t>
         </is>
       </c>
     </row>
@@ -3727,12 +3727,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12130</t>
+          <t>12042</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29348</t>
+          <t>29349</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17699</t>
+          <t>17387</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>36012</t>
+          <t>35075</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3797,12 +3797,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>33864</t>
+          <t>33021</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>57666</t>
+          <t>57995</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>9,93%</t>
         </is>
       </c>
     </row>
@@ -3840,12 +3840,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>294699</t>
+          <t>294698</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>311917</t>
+          <t>312005</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,26%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>224069</t>
+          <t>225006</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>242382</t>
+          <t>242694</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>86,15%</t>
+          <t>86,51%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>93,19%</t>
+          <t>93,31%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3910,12 +3910,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>526462</t>
+          <t>526133</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>550264</t>
+          <t>551107</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3925,12 +3925,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>90,13%</t>
+          <t>90,07%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>94,2%</t>
+          <t>94,35%</t>
         </is>
       </c>
     </row>
@@ -4070,12 +4070,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3347</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37462</t>
+          <t>38410</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4085,12 +4085,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4105,12 +4105,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9297</t>
+          <t>9355</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20741</t>
+          <t>20021</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4120,12 +4120,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>20,52%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>9148</t>
+          <t>8676</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>59237</t>
+          <t>57637</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4155,12 +4155,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>10,07%</t>
         </is>
       </c>
     </row>
@@ -4183,12 +4183,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>437243</t>
+          <t>436295</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>471358</t>
+          <t>470168</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,11%</t>
+          <t>91,91%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,29%</t>
+          <t>99,04%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4218,12 +4218,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>76823</t>
+          <t>77543</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>88267</t>
+          <t>88209</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>78,74%</t>
+          <t>79,48%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>90,47%</t>
+          <t>90,41%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>513032</t>
+          <t>514632</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>563121</t>
+          <t>563593</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4268,12 +4268,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>89,65%</t>
+          <t>89,93%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,4%</t>
+          <t>98,48%</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23013</t>
+          <t>23088</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>44816</t>
+          <t>45538</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20686</t>
+          <t>21289</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>85881</t>
+          <t>86132</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>50251</t>
+          <t>53944</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>113806</t>
+          <t>114817</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>9,79%</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>491339</t>
+          <t>490617</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>513142</t>
+          <t>513067</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,64%</t>
+          <t>91,51%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,71%</t>
+          <t>95,69%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>550552</t>
+          <t>550301</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>615747</t>
+          <t>615144</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>86,51%</t>
+          <t>86,47%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,75%</t>
+          <t>96,65%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1058782</t>
+          <t>1057771</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1122337</t>
+          <t>1118644</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4611,12 +4611,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>90,29%</t>
+          <t>90,21%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,71%</t>
+          <t>95,4%</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4756,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8695</t>
+          <t>8739</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>23477</t>
+          <t>24776</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>35454</t>
+          <t>35087</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>81257</t>
+          <t>80146</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4806,12 +4806,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>53111</t>
+          <t>51770</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>96098</t>
+          <t>94995</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4841,12 +4841,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>14,96%</t>
         </is>
       </c>
     </row>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>187745</t>
+          <t>186446</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>202527</t>
+          <t>202483</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>88,88%</t>
+          <t>88,27%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,88%</t>
+          <t>95,86%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>342692</t>
+          <t>343803</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>388495</t>
+          <t>388862</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4919,12 +4919,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>80,83%</t>
+          <t>81,1%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>91,64%</t>
+          <t>91,72%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>539073</t>
+          <t>540176</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>582060</t>
+          <t>583401</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4954,12 +4954,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>84,87%</t>
+          <t>85,04%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>91,64%</t>
+          <t>91,85%</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4635</t>
+          <t>3899</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>22742</t>
+          <t>22046</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5134,12 +5134,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>50922</t>
+          <t>50896</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>78393</t>
+          <t>80711</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5169,12 +5169,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>58326</t>
+          <t>59045</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>94508</t>
+          <t>91315</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>13,89%</t>
         </is>
       </c>
     </row>
@@ -5212,12 +5212,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>144019</t>
+          <t>144715</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>162126</t>
+          <t>162862</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>86,36%</t>
+          <t>86,78%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>97,22%</t>
+          <t>97,66%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>412116</t>
+          <t>409798</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>439587</t>
+          <t>439613</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>84,02%</t>
+          <t>83,55%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
@@ -5282,12 +5282,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>562762</t>
+          <t>565955</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>598944</t>
+          <t>598225</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>85,62%</t>
+          <t>86,11%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>91,13%</t>
+          <t>91,02%</t>
         </is>
       </c>
     </row>
@@ -5442,12 +5442,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>71707</t>
+          <t>73616</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>136525</t>
+          <t>137719</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5457,12 +5457,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>165228</t>
+          <t>170455</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>282118</t>
+          <t>282343</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5512,12 +5512,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>288195</t>
+          <t>285406</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>408936</t>
+          <t>408413</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>9,53%</t>
         </is>
       </c>
     </row>
@@ -5555,12 +5555,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1942217</t>
+          <t>1941023</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2007035</t>
+          <t>2005126</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>93,43%</t>
+          <t>93,37%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>96,46%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1925318</t>
+          <t>1925093</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2042208</t>
+          <t>2036981</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>87,22%</t>
+          <t>87,21%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>92,51%</t>
+          <t>92,28%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3877242</t>
+          <t>3877765</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>3997983</t>
+          <t>4000772</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>90,46%</t>
+          <t>90,47%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>93,28%</t>
+          <t>93,34%</t>
         </is>
       </c>
     </row>
@@ -8670,12 +8670,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17666</t>
+          <t>17766</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29003</t>
+          <t>29298</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -8685,12 +8685,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -8705,12 +8705,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>42345</t>
+          <t>41566</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>59171</t>
+          <t>57786</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -8720,12 +8720,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>20,13%</t>
+          <t>19,76%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>28,12%</t>
+          <t>27,47%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -8740,12 +8740,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>63003</t>
+          <t>62790</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>83580</t>
+          <t>82075</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -8755,12 +8755,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>19,73%</t>
         </is>
       </c>
     </row>
@@ -8783,12 +8783,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>176639</t>
+          <t>176344</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>187976</t>
+          <t>187876</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -8798,12 +8798,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,9%</t>
+          <t>85,75%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>91,41%</t>
+          <t>91,36%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -8818,12 +8818,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>151225</t>
+          <t>152610</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>168051</t>
+          <t>168830</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -8833,12 +8833,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>71,88%</t>
+          <t>72,53%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>79,87%</t>
+          <t>80,24%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -8853,12 +8853,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>332459</t>
+          <t>333964</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>353036</t>
+          <t>353249</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -8868,12 +8868,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>79,91%</t>
+          <t>80,27%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>84,86%</t>
+          <t>84,91%</t>
         </is>
       </c>
     </row>
@@ -9013,12 +9013,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14788</t>
+          <t>14665</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25933</t>
+          <t>25720</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -9028,12 +9028,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>20,58%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -9048,12 +9048,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>35210</t>
+          <t>35366</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>50514</t>
+          <t>51761</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -9063,12 +9063,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>29,88%</t>
+          <t>30,62%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -9083,12 +9083,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>52889</t>
+          <t>53148</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>71777</t>
+          <t>71955</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -9098,12 +9098,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>24,48%</t>
         </is>
       </c>
     </row>
@@ -9126,12 +9126,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>99015</t>
+          <t>99228</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>110160</t>
+          <t>110283</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -9141,12 +9141,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>79,24%</t>
+          <t>79,42%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>88,16%</t>
+          <t>88,26%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -9161,12 +9161,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>118529</t>
+          <t>117282</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>133833</t>
+          <t>133677</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -9176,12 +9176,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>70,12%</t>
+          <t>69,38%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>79,17%</t>
+          <t>79,08%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -9196,12 +9196,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>222213</t>
+          <t>222035</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>241101</t>
+          <t>240842</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -9211,12 +9211,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>75,59%</t>
+          <t>75,52%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>82,01%</t>
+          <t>81,92%</t>
         </is>
       </c>
     </row>
@@ -9356,12 +9356,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16476</t>
+          <t>15376</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30072</t>
+          <t>29080</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -9371,12 +9371,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,41%</t>
+          <t>30,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -9391,12 +9391,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14195</t>
+          <t>14546</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>25773</t>
+          <t>25512</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -9406,12 +9406,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>25,34%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>44,9%</t>
+          <t>44,44%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -9426,12 +9426,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>32987</t>
+          <t>33397</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>51260</t>
+          <t>51966</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -9441,12 +9441,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>33,47%</t>
+          <t>33,93%</t>
         </is>
       </c>
     </row>
@@ -9469,12 +9469,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>65677</t>
+          <t>66669</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>79273</t>
+          <t>80373</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -9484,12 +9484,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>68,59%</t>
+          <t>69,63%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>82,79%</t>
+          <t>83,94%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -9504,12 +9504,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31631</t>
+          <t>31892</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>43209</t>
+          <t>42858</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -9519,12 +9519,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>55,1%</t>
+          <t>55,56%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>75,27%</t>
+          <t>74,66%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -9539,12 +9539,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>101894</t>
+          <t>101188</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>120167</t>
+          <t>119757</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -9554,12 +9554,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>66,53%</t>
+          <t>66,07%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>78,46%</t>
+          <t>78,19%</t>
         </is>
       </c>
     </row>
@@ -9699,12 +9699,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23404</t>
+          <t>23508</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>38513</t>
+          <t>37974</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -9714,12 +9714,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -9734,12 +9734,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>46051</t>
+          <t>45771</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>66253</t>
+          <t>65850</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -9749,12 +9749,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>28,98%</t>
+          <t>28,8%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>41,69%</t>
+          <t>41,44%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -9769,12 +9769,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>72148</t>
+          <t>71673</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>98039</t>
+          <t>97602</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -9784,12 +9784,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>22,4%</t>
+          <t>22,26%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>30,44%</t>
+          <t>30,31%</t>
         </is>
       </c>
     </row>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>124629</t>
+          <t>125168</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>139738</t>
+          <t>139634</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -9827,12 +9827,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>76,39%</t>
+          <t>76,72%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>85,65%</t>
+          <t>85,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -9847,12 +9847,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>92655</t>
+          <t>93058</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>112857</t>
+          <t>113137</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -9862,12 +9862,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>58,31%</t>
+          <t>58,56%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>71,02%</t>
+          <t>71,2%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -9882,12 +9882,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>224012</t>
+          <t>224449</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>249903</t>
+          <t>250378</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -9897,12 +9897,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>69,56%</t>
+          <t>69,69%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>77,6%</t>
+          <t>77,74%</t>
         </is>
       </c>
     </row>
@@ -10042,12 +10042,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2715</t>
+          <t>2630</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9111</t>
+          <t>8823</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -10057,12 +10057,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -10077,12 +10077,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>23137</t>
+          <t>23419</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>39085</t>
+          <t>39411</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -10092,12 +10092,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>24,5%</t>
+          <t>24,8%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>41,39%</t>
+          <t>41,73%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -10112,12 +10112,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>27951</t>
+          <t>28157</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>44650</t>
+          <t>45992</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -10127,12 +10127,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>30,14%</t>
+          <t>31,04%</t>
         </is>
       </c>
     </row>
@@ -10155,12 +10155,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>44598</t>
+          <t>44886</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>50994</t>
+          <t>51079</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -10170,12 +10170,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>83,04%</t>
+          <t>83,57%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>94,95%</t>
+          <t>95,1%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -10190,12 +10190,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>55356</t>
+          <t>55030</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>71304</t>
+          <t>71022</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -10205,12 +10205,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>58,61%</t>
+          <t>58,27%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>75,5%</t>
+          <t>75,2%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -10225,12 +10225,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>103500</t>
+          <t>102158</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>120199</t>
+          <t>119993</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -10240,12 +10240,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>69,86%</t>
+          <t>68,96%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>81,13%</t>
+          <t>80,99%</t>
         </is>
       </c>
     </row>
@@ -10385,12 +10385,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2352</t>
+          <t>2318</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11116</t>
+          <t>10905</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -10400,12 +10400,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>30,41%</t>
+          <t>29,84%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -10420,12 +10420,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10564</t>
+          <t>10940</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>21006</t>
+          <t>20537</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -10435,12 +10435,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>32,89%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -10455,12 +10455,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>14724</t>
+          <t>15142</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>27591</t>
+          <t>27989</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -10470,12 +10470,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>27,87%</t>
+          <t>28,28%</t>
         </is>
       </c>
     </row>
@@ -10498,12 +10498,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>25431</t>
+          <t>25642</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>34195</t>
+          <t>34229</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -10513,12 +10513,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>69,59%</t>
+          <t>70,16%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>93,56%</t>
+          <t>93,66%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -10533,12 +10533,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>41435</t>
+          <t>41904</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>51877</t>
+          <t>51501</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -10548,12 +10548,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>66,36%</t>
+          <t>67,11%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>83,08%</t>
+          <t>82,48%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -10568,12 +10568,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>71397</t>
+          <t>70999</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>84264</t>
+          <t>83846</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -10583,12 +10583,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>72,13%</t>
+          <t>71,72%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>85,13%</t>
+          <t>84,7%</t>
         </is>
       </c>
     </row>
@@ -10728,12 +10728,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>92202</t>
+          <t>91821</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>119700</t>
+          <t>120214</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -10743,12 +10743,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -10763,12 +10763,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>194057</t>
+          <t>194311</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>231355</t>
+          <t>229776</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -10778,12 +10778,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>25,82%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>30,74%</t>
+          <t>30,53%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -10798,12 +10798,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>292865</t>
+          <t>292244</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>341490</t>
+          <t>340873</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -10813,12 +10813,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>20,4%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>23,8%</t>
         </is>
       </c>
     </row>
@@ -10841,12 +10841,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>560038</t>
+          <t>559524</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>587536</t>
+          <t>587917</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -10856,12 +10856,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>82,39%</t>
+          <t>82,31%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>86,44%</t>
+          <t>86,49%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -10876,12 +10876,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>521278</t>
+          <t>522857</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>558576</t>
+          <t>558322</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -10891,12 +10891,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>69,26%</t>
+          <t>69,47%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>74,22%</t>
+          <t>74,18%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -10911,12 +10911,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1090881</t>
+          <t>1091498</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1139506</t>
+          <t>1140127</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -10926,12 +10926,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>76,16%</t>
+          <t>76,2%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>79,55%</t>
+          <t>79,6%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/VUL_MENTALCOM-Clase-trans_orig.xlsx
+++ b/data/trans_orig/VUL_MENTALCOM-Clase-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común (ansiedad/depresión) en País Vasco (tasa de respuesta: 99,34%)</t>
+          <t>Enfermedad mental común (ansiedad/depresión) en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4720</t>
+          <t>18554</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2872</t>
+          <t>11117</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6862</t>
+          <t>27603</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5978</t>
+          <t>28525</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4117</t>
+          <t>20743</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8380</t>
+          <t>38809</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>58</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>10699</t>
+          <t>47078</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>8247</t>
+          <t>36225</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>13966</t>
+          <t>62310</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>8,63%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>824</t>
+          <t>379</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>157496</t>
+          <t>375909</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>155354</t>
+          <t>366860</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>159344</t>
+          <t>383346</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,09%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,77%</t>
+          <t>93,0%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>97,18%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>416</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>162881</t>
+          <t>299101</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>160479</t>
+          <t>288817</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>164742</t>
+          <t>306883</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>96,46%</t>
+          <t>91,29%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>95,04%</t>
+          <t>88,15%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>93,67%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1670</t>
+          <t>795</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>320376</t>
+          <t>675012</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>317109</t>
+          <t>659780</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>322828</t>
+          <t>685865</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>93,48%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>95,78%</t>
+          <t>91,37%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,51%</t>
+          <t>94,98%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>852</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>162216</t>
+          <t>394463</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>162216</t>
+          <t>394463</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>162216</t>
+          <t>394463</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1732</t>
+          <t>853</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>331075</t>
+          <t>722090</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>331075</t>
+          <t>722090</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>331075</t>
+          <t>722090</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1074,37 +1074,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3520</t>
+          <t>21038</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2191</t>
+          <t>12994</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>31529</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,67 +1114,67 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6408</t>
+          <t>25844</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4214</t>
+          <t>18330</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8748</t>
+          <t>35782</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>57</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>9928</t>
+          <t>46882</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>7555</t>
+          <t>34808</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>13156</t>
+          <t>61370</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>9,72%</t>
         </is>
       </c>
     </row>
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>312</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>86748</t>
+          <t>323309</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>84597</t>
+          <t>312818</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>88077</t>
+          <t>331353</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,1%</t>
+          <t>93,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,72%</t>
+          <t>90,84%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,57%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>358</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>116130</t>
+          <t>261096</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>113790</t>
+          <t>251158</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>118324</t>
+          <t>268610</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,77%</t>
+          <t>90,99%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,86%</t>
+          <t>87,53%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>670</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>202878</t>
+          <t>584405</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>199650</t>
+          <t>569917</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>205251</t>
+          <t>596479</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,33%</t>
+          <t>92,57%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,82%</t>
+          <t>90,28%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>94,49%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90268</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90268</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90268</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>122538</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>122538</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>122538</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>212806</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>212806</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>212806</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1417,107 +1417,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6306</t>
+          <t>17800</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4418</t>
+          <t>10844</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8633</t>
+          <t>27468</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6575</t>
+          <t>15714</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4579</t>
+          <t>10702</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8817</t>
+          <t>22639</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>20,31%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>43</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>12881</t>
+          <t>33513</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10396</t>
+          <t>24598</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>15921</t>
+          <t>45910</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>12,37%</t>
         </is>
       </c>
     </row>
@@ -1530,107 +1530,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>242</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>147053</t>
+          <t>241888</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>144726</t>
+          <t>232220</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>148941</t>
+          <t>248844</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,89%</t>
+          <t>93,15%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,37%</t>
+          <t>89,42%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,12%</t>
+          <t>95,82%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>138</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>55360</t>
+          <t>95772</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>53118</t>
+          <t>88847</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>57356</t>
+          <t>100784</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>89,38%</t>
+          <t>85,91%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>85,76%</t>
+          <t>79,69%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>92,61%</t>
+          <t>90,4%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1207</t>
+          <t>380</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>202413</t>
+          <t>337661</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>199373</t>
+          <t>325264</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>204898</t>
+          <t>346576</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>94,02%</t>
+          <t>90,97%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>87,63%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>95,17%</t>
+          <t>93,37%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>918</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>153359</t>
+          <t>259688</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>153359</t>
+          <t>259688</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>153359</t>
+          <t>259688</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61935</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>61935</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>61935</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1285</t>
+          <t>423</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215294</t>
+          <t>371174</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215294</t>
+          <t>371174</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215294</t>
+          <t>371174</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1760,107 +1760,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9804</t>
+          <t>39134</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6921</t>
+          <t>27269</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12530</t>
+          <t>52263</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13307</t>
+          <t>61447</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10762</t>
+          <t>49068</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16615</t>
+          <t>74364</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>127</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>23112</t>
+          <t>100581</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>19490</t>
+          <t>84623</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>27724</t>
+          <t>120075</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>10,92%</t>
         </is>
       </c>
     </row>
@@ -1873,107 +1873,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>951</t>
+          <t>524</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>160688</t>
+          <t>570848</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>157962</t>
+          <t>557719</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>163571</t>
+          <t>582713</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,25%</t>
+          <t>93,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,65%</t>
+          <t>91,43%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>95,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>582</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>169721</t>
+          <t>428534</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>166413</t>
+          <t>415617</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>172266</t>
+          <t>440913</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>92,73%</t>
+          <t>87,46%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>90,92%</t>
+          <t>84,82%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,12%</t>
+          <t>89,99%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1911</t>
+          <t>1106</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>330408</t>
+          <t>999381</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>325796</t>
+          <t>979887</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>334030</t>
+          <t>1015339</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>90,86%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,16%</t>
+          <t>89,08%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,49%</t>
+          <t>92,31%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170492</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170492</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170492</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>670</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>183028</t>
+          <t>489981</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>183028</t>
+          <t>489981</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>183028</t>
+          <t>489981</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2046</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>353520</t>
+          <t>1099962</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>353520</t>
+          <t>1099962</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>353520</t>
+          <t>1099962</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2103,107 +2103,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1582</t>
+          <t>16075</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>9215</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2814</t>
+          <t>26268</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11565</t>
+          <t>71476</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>8983</t>
+          <t>59113</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>14433</t>
+          <t>83970</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>20,58%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>125</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>13147</t>
+          <t>87551</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>10447</t>
+          <t>73437</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>16427</t>
+          <t>102879</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>15,56%</t>
         </is>
       </c>
     </row>
@@ -2216,107 +2216,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>216</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>72211</t>
+          <t>237266</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>70979</t>
+          <t>227073</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>73047</t>
+          <t>244126</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,86%</t>
+          <t>93,65%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>96,19%</t>
+          <t>89,63%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,99%</t>
+          <t>96,36%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>476</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>113687</t>
+          <t>336543</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>110819</t>
+          <t>324049</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>116269</t>
+          <t>348906</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>90,77%</t>
+          <t>82,48%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>88,48%</t>
+          <t>79,42%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>92,83%</t>
+          <t>85,51%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>692</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>185898</t>
+          <t>573810</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>182618</t>
+          <t>558482</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>188598</t>
+          <t>587924</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>93,39%</t>
+          <t>86,76%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>91,75%</t>
+          <t>84,44%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>94,75%</t>
+          <t>88,9%</t>
         </is>
       </c>
     </row>
@@ -2329,22 +2329,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>73793</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>73793</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>73793</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2364,22 +2364,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>585</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>125252</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>125252</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>125252</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2399,22 +2399,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1192</t>
+          <t>817</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>199045</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>199045</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>199045</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2446,107 +2446,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>11106</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>4501</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>22804</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9862</t>
+          <t>68846</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7708</t>
+          <t>55521</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>12918</t>
+          <t>87920</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>99</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>10871</t>
+          <t>79951</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>8230</t>
+          <t>64772</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>14036</t>
+          <t>99931</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>13,94%</t>
         </is>
       </c>
     </row>
@@ -2559,107 +2559,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>54164</t>
+          <t>158391</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>52287</t>
+          <t>146693</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>54825</t>
+          <t>164996</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,17%</t>
+          <t>93,45%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>94,77%</t>
+          <t>86,55%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,37%</t>
+          <t>97,34%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>608</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>112537</t>
+          <t>478631</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>109481</t>
+          <t>459557</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>114691</t>
+          <t>491956</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>91,94%</t>
+          <t>87,42%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>89,45%</t>
+          <t>83,94%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>89,86%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>892</t>
+          <t>678</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>166700</t>
+          <t>637023</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>163535</t>
+          <t>617043</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>169341</t>
+          <t>652202</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>93,88%</t>
+          <t>88,85%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>92,1%</t>
+          <t>86,06%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>95,37%</t>
+          <t>90,97%</t>
         </is>
       </c>
     </row>
@@ -2672,22 +2672,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>55173</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>55173</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55173</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2707,22 +2707,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>699</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>122399</t>
+          <t>547477</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>122399</t>
+          <t>547477</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>122399</t>
+          <t>547477</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2742,22 +2742,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>957</t>
+          <t>777</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>177571</t>
+          <t>716974</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>177571</t>
+          <t>716974</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>177571</t>
+          <t>716974</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2789,107 +2789,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>122</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>26942</t>
+          <t>123706</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>22965</t>
+          <t>101212</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>31289</t>
+          <t>146945</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>387</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>53695</t>
+          <t>271851</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>47293</t>
+          <t>247130</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>60110</t>
+          <t>304314</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>509</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>80637</t>
+          <t>395557</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>73504</t>
+          <t>363979</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>88517</t>
+          <t>434786</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>10,35%</t>
         </is>
       </c>
     </row>
@@ -2902,107 +2902,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3827</t>
+          <t>1743</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>678359</t>
+          <t>1907612</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>674012</t>
+          <t>1884373</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>682336</t>
+          <t>1930106</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>93,91%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>92,77%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>96,74%</t>
+          <t>95,02%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>4077</t>
+          <t>2578</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>730316</t>
+          <t>1899679</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>723901</t>
+          <t>1867216</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>736718</t>
+          <t>1924400</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>93,15%</t>
+          <t>87,48%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>92,33%</t>
+          <t>85,99%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>93,97%</t>
+          <t>88,62%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>7904</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1408675</t>
+          <t>3807291</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1400795</t>
+          <t>3768062</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1415808</t>
+          <t>3838869</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>94,59%</t>
+          <t>90,59%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>94,06%</t>
+          <t>89,65%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>95,06%</t>
+          <t>91,34%</t>
         </is>
       </c>
     </row>
@@ -3015,22 +3015,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3981</t>
+          <t>1865</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>705301</t>
+          <t>2031318</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>705301</t>
+          <t>2031318</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>705301</t>
+          <t>2031318</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3050,22 +3050,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4396</t>
+          <t>2965</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>784011</t>
+          <t>2171530</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>784011</t>
+          <t>2171530</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>784011</t>
+          <t>2171530</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3085,22 +3085,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8377</t>
+          <t>4830</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1489312</t>
+          <t>4202848</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1489312</t>
+          <t>4202848</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1489312</t>
+          <t>4202848</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3189,7 +3189,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común (ansiedad/depresión) en Andalucia (tasa de respuesta: 99,9%)</t>
+          <t>Enfermedad mental común (ansiedad/depresión) en Barcelona (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3374,107 +3374,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18067</t>
+          <t>23276</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11046</t>
+          <t>17766</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26910</t>
+          <t>29298</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>148</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>24512</t>
+          <t>49142</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>17512</t>
+          <t>41566</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>34153</t>
+          <t>57786</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>19,76%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>27,47%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>218</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>42579</t>
+          <t>72418</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>32541</t>
+          <t>62790</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>56313</t>
+          <t>82075</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>17,41%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>19,73%</t>
         </is>
       </c>
     </row>
@@ -3487,107 +3487,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>531</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>347784</t>
+          <t>182366</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>338941</t>
+          <t>176344</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>354805</t>
+          <t>187876</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>95,06%</t>
+          <t>88,68%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,64%</t>
+          <t>85,75%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>96,98%</t>
+          <t>91,36%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>466</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>274389</t>
+          <t>161254</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>264748</t>
+          <t>152610</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>281389</t>
+          <t>168830</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>91,8%</t>
+          <t>76,64%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>88,57%</t>
+          <t>72,53%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>80,24%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>997</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>622173</t>
+          <t>343621</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>608439</t>
+          <t>333964</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>632211</t>
+          <t>353249</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>93,59%</t>
+          <t>82,59%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>91,53%</t>
+          <t>80,27%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,1%</t>
+          <t>84,91%</t>
         </is>
       </c>
     </row>
@@ -3600,22 +3600,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>601</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>365851</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>365851</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>365851</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3635,22 +3635,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>614</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3670,22 +3670,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>664752</t>
+          <t>416039</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>664752</t>
+          <t>416039</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>664752</t>
+          <t>416039</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3717,107 +3717,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19220</t>
+          <t>19554</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12042</t>
+          <t>14665</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29349</t>
+          <t>25720</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>20,58%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>110</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24744</t>
+          <t>42339</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17387</t>
+          <t>35366</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>35075</t>
+          <t>51761</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>25,05%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>30,62%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>161</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>43964</t>
+          <t>61893</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>33021</t>
+          <t>53148</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>57995</t>
+          <t>71955</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>24,48%</t>
         </is>
       </c>
     </row>
@@ -3830,107 +3830,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>249</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>304827</t>
+          <t>105394</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>294698</t>
+          <t>99228</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>312005</t>
+          <t>110283</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,07%</t>
+          <t>84,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>90,94%</t>
+          <t>79,42%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>88,26%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>320</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>235337</t>
+          <t>126704</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>225006</t>
+          <t>117282</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>242694</t>
+          <t>133677</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>90,49%</t>
+          <t>74,95%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>86,51%</t>
+          <t>69,38%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>93,31%</t>
+          <t>79,08%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>569</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>540164</t>
+          <t>232097</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>526133</t>
+          <t>222035</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>551107</t>
+          <t>240842</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>92,47%</t>
+          <t>78,95%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>90,07%</t>
+          <t>75,52%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>94,35%</t>
+          <t>81,92%</t>
         </is>
       </c>
     </row>
@@ -3943,22 +3943,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3978,22 +3978,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>430</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4013,22 +4013,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>730</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293990</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293990</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293990</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4060,107 +4060,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16130</t>
+          <t>22085</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4537</t>
+          <t>15376</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38410</t>
+          <t>29080</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>23,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>30,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14010</t>
+          <t>19522</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9355</t>
+          <t>14546</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20021</t>
+          <t>25512</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>34,01%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>25,34%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>44,44%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>95</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>30140</t>
+          <t>41607</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>8676</t>
+          <t>33397</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>57637</t>
+          <t>51966</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>27,17%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>33,93%</t>
         </is>
       </c>
     </row>
@@ -4173,107 +4173,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>458575</t>
+          <t>73664</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>436295</t>
+          <t>66669</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>470168</t>
+          <t>80373</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,6%</t>
+          <t>76,93%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,91%</t>
+          <t>69,63%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>83,94%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>83554</t>
+          <t>37882</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>77543</t>
+          <t>31892</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>88209</t>
+          <t>42858</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>85,64%</t>
+          <t>65,99%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>79,48%</t>
+          <t>55,56%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>90,41%</t>
+          <t>74,66%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>250</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>542129</t>
+          <t>111547</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>514632</t>
+          <t>101188</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>563593</t>
+          <t>119757</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>94,73%</t>
+          <t>72,83%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>89,93%</t>
+          <t>66,07%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,48%</t>
+          <t>78,19%</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>207</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>474705</t>
+          <t>95749</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>474705</t>
+          <t>95749</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>474705</t>
+          <t>95749</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>138</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4356,22 +4356,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>345</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>572269</t>
+          <t>153154</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>572269</t>
+          <t>153154</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>572269</t>
+          <t>153154</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4403,107 +4403,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32815</t>
+          <t>30022</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23088</t>
+          <t>23508</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>45538</t>
+          <t>37974</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>54913</t>
+          <t>55003</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21289</t>
+          <t>45771</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>86132</t>
+          <t>65850</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>34,61%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>28,8%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>41,44%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>179</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>87728</t>
+          <t>85025</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>53944</t>
+          <t>71673</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>114817</t>
+          <t>97602</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>26,4%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>22,26%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>30,31%</t>
         </is>
       </c>
     </row>
@@ -4516,107 +4516,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>264</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>503340</t>
+          <t>133120</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>490617</t>
+          <t>125168</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>513067</t>
+          <t>139634</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>93,88%</t>
+          <t>81,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,51%</t>
+          <t>76,72%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,69%</t>
+          <t>85,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>225</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>581520</t>
+          <t>103905</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>550301</t>
+          <t>93058</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>615144</t>
+          <t>113137</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>91,37%</t>
+          <t>65,39%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>86,47%</t>
+          <t>58,56%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>71,2%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>489</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1084860</t>
+          <t>237026</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1057771</t>
+          <t>224449</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1118644</t>
+          <t>250378</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>92,52%</t>
+          <t>73,6%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>90,21%</t>
+          <t>69,69%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,4%</t>
+          <t>77,74%</t>
         </is>
       </c>
     </row>
@@ -4629,22 +4629,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4664,22 +4664,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>333</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>636433</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>636433</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>636433</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4699,22 +4699,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1233</t>
+          <t>668</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1172588</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1172588</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1172588</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4746,107 +4746,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15225</t>
+          <t>5310</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8739</t>
+          <t>2630</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24776</t>
+          <t>8823</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>63266</t>
+          <t>30456</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>35087</t>
+          <t>23419</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>80146</t>
+          <t>39411</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>32,25%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>24,8%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>41,73%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>71</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>78491</t>
+          <t>35766</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>51770</t>
+          <t>28157</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>94995</t>
+          <t>45992</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>24,14%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>31,04%</t>
         </is>
       </c>
     </row>
@@ -4859,107 +4859,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>48399</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>44886</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>51079</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>90,11%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>83,57%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>95,1%</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>63985</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>55030</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>71022</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>67,75%</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>58,27%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>75,2%</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
           <t>216</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>195997</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>186446</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>202483</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>92,79%</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>88,27%</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>95,86%</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>476</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>360683</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>343803</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>388862</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>85,08%</t>
-        </is>
-      </c>
-      <c r="O17" s="2" t="inlineStr">
-        <is>
-          <t>81,1%</t>
-        </is>
-      </c>
-      <c r="P17" s="2" t="inlineStr">
-        <is>
-          <t>91,72%</t>
-        </is>
-      </c>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>692</t>
-        </is>
-      </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>556680</t>
+          <t>112384</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>540176</t>
+          <t>102158</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>583401</t>
+          <t>119993</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>87,64%</t>
+          <t>75,86%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>85,04%</t>
+          <t>68,96%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>91,85%</t>
+          <t>80,99%</t>
         </is>
       </c>
     </row>
@@ -4972,22 +4972,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5007,22 +5007,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5042,22 +5042,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>287</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5089,107 +5089,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10286</t>
+          <t>5315</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3899</t>
+          <t>2318</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>22046</t>
+          <t>10905</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>14,54%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>29,84%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>63025</t>
+          <t>15197</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>50896</t>
+          <t>10940</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>80711</t>
+          <t>20537</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>32,89%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>45</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>73311</t>
+          <t>20512</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>59045</t>
+          <t>15142</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>91315</t>
+          <t>27989</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>20,72%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>28,28%</t>
         </is>
       </c>
     </row>
@@ -5202,107 +5202,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>156475</t>
+          <t>31232</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>144715</t>
+          <t>25642</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>162862</t>
+          <t>34229</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>93,83%</t>
+          <t>85,46%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>86,78%</t>
+          <t>70,16%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>97,66%</t>
+          <t>93,66%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>119</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>427484</t>
+          <t>47244</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>409798</t>
+          <t>41904</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>439613</t>
+          <t>51501</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>87,15%</t>
+          <t>75,66%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>83,55%</t>
+          <t>67,11%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>89,62%</t>
+          <t>82,48%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>199</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>583959</t>
+          <t>78476</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>565955</t>
+          <t>70999</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>598225</t>
+          <t>83846</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>88,85%</t>
+          <t>79,28%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>86,11%</t>
+          <t>71,72%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>91,02%</t>
+          <t>84,7%</t>
         </is>
       </c>
     </row>
@@ -5315,22 +5315,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5350,22 +5350,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>154</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>490509</t>
+          <t>62441</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>490509</t>
+          <t>62441</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>490509</t>
+          <t>62441</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5385,22 +5385,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>244</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>657270</t>
+          <t>98988</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>657270</t>
+          <t>98988</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>657270</t>
+          <t>98988</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5432,107 +5432,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>111744</t>
+          <t>105562</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>73616</t>
+          <t>91821</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>137719</t>
+          <t>120214</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>509</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>244469</t>
+          <t>211659</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>170455</t>
+          <t>194311</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>282343</t>
+          <t>229776</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>28,12%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>25,82%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>30,53%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>769</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>356213</t>
+          <t>317221</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>285406</t>
+          <t>292244</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>408413</t>
+          <t>340873</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>20,4%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>23,8%</t>
         </is>
       </c>
     </row>
@@ -5545,107 +5545,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1743</t>
+          <t>1375</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1966998</t>
+          <t>574176</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1941023</t>
+          <t>559524</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2005126</t>
+          <t>587917</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>94,62%</t>
+          <t>84,47%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>93,37%</t>
+          <t>82,31%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>96,46%</t>
+          <t>86,49%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2578</t>
+          <t>1345</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1962967</t>
+          <t>540974</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1925093</t>
+          <t>522857</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2036981</t>
+          <t>558322</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>88,93%</t>
+          <t>71,88%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>87,21%</t>
+          <t>69,47%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>92,28%</t>
+          <t>74,18%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4321</t>
+          <t>2720</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>3929965</t>
+          <t>1115150</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3877765</t>
+          <t>1091498</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4000772</t>
+          <t>1140127</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>91,69%</t>
+          <t>77,85%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>90,47%</t>
+          <t>76,2%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>93,34%</t>
+          <t>79,6%</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5658,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1865</t>
+          <t>1635</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2078742</t>
+          <t>679738</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2078742</t>
+          <t>679738</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2078742</t>
+          <t>679738</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -5693,22 +5693,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2965</t>
+          <t>1854</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2207436</t>
+          <t>752633</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2207436</t>
+          <t>752633</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2207436</t>
+          <t>752633</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -5728,22 +5728,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>4830</t>
+          <t>3489</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>4286178</t>
+          <t>1432371</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>4286178</t>
+          <t>1432371</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>4286178</t>
+          <t>1432371</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -8475,7 +8475,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común (ansiedad/depresión) en Barcelona (tasa de respuesta: 99,91%)</t>
+          <t>Enfermedad mental común (ansiedad/depresión) en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8660,107 +8660,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23276</t>
+          <t>4720</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17766</t>
+          <t>2872</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29298</t>
+          <t>6862</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>49142</t>
+          <t>5978</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>41566</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>57786</t>
+          <t>8380</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>62</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>72418</t>
+          <t>10699</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>62790</t>
+          <t>8247</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>82075</t>
+          <t>13966</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>4,22%</t>
         </is>
       </c>
     </row>
@@ -8773,107 +8773,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>824</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>182366</t>
+          <t>157496</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>176344</t>
+          <t>155354</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>187876</t>
+          <t>159344</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>88,68%</t>
+          <t>97,09%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,75%</t>
+          <t>95,77%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>91,36%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>846</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>161254</t>
+          <t>162881</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>152610</t>
+          <t>160479</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>168830</t>
+          <t>164742</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>76,64%</t>
+          <t>96,46%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>72,53%</t>
+          <t>95,04%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>80,24%</t>
+          <t>97,56%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>997</t>
+          <t>1670</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>343621</t>
+          <t>320376</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>333964</t>
+          <t>317109</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>353249</t>
+          <t>322828</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>82,59%</t>
+          <t>96,77%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>80,27%</t>
+          <t>95,78%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>84,91%</t>
+          <t>97,51%</t>
         </is>
       </c>
     </row>
@@ -8886,22 +8886,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>852</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -8921,22 +8921,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>880</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -8956,22 +8956,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>1732</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>416039</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>416039</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>416039</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -9003,107 +9003,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19554</t>
+          <t>3520</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14665</t>
+          <t>2191</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25720</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,58%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>42339</t>
+          <t>6408</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>35366</t>
+          <t>4214</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>51761</t>
+          <t>8748</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,05%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>30,62%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>53</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>61893</t>
+          <t>9928</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>53148</t>
+          <t>7555</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>71955</t>
+          <t>13156</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>21,05%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>6,18%</t>
         </is>
       </c>
     </row>
@@ -9116,107 +9116,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>475</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>105394</t>
+          <t>86748</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>99228</t>
+          <t>84597</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>110283</t>
+          <t>88077</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>84,35%</t>
+          <t>96,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>79,42%</t>
+          <t>93,72%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>88,26%</t>
+          <t>97,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>637</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>126704</t>
+          <t>116130</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>117282</t>
+          <t>113790</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>133677</t>
+          <t>118324</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>74,95%</t>
+          <t>94,77%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>69,38%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>79,08%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>1112</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>232097</t>
+          <t>202878</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>222035</t>
+          <t>199650</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>240842</t>
+          <t>205251</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>78,95%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>75,52%</t>
+          <t>93,82%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>81,92%</t>
+          <t>96,45%</t>
         </is>
       </c>
     </row>
@@ -9229,22 +9229,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>493</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -9264,22 +9264,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>672</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -9299,22 +9299,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>293990</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>293990</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>293990</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -9346,107 +9346,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22085</t>
+          <t>6306</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15376</t>
+          <t>4418</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29080</t>
+          <t>8633</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>30,37%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19522</t>
+          <t>6575</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14546</t>
+          <t>4579</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>25512</t>
+          <t>8817</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>34,01%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>44,44%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>78</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>41607</t>
+          <t>12881</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>33397</t>
+          <t>10396</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>51966</t>
+          <t>15921</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>27,17%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>33,93%</t>
+          <t>7,4%</t>
         </is>
       </c>
     </row>
@@ -9459,107 +9459,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>878</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>73664</t>
+          <t>147053</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>66669</t>
+          <t>144726</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>80373</t>
+          <t>148941</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>76,93%</t>
+          <t>95,89%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>69,63%</t>
+          <t>94,37%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>83,94%</t>
+          <t>97,12%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>329</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>37882</t>
+          <t>55360</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31892</t>
+          <t>53118</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>42858</t>
+          <t>57356</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>65,99%</t>
+          <t>89,38%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>55,56%</t>
+          <t>85,76%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>74,66%</t>
+          <t>92,61%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1207</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>111547</t>
+          <t>202413</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>101188</t>
+          <t>199373</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>119757</t>
+          <t>204898</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>72,83%</t>
+          <t>94,02%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>66,07%</t>
+          <t>92,6%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>78,19%</t>
+          <t>95,17%</t>
         </is>
       </c>
     </row>
@@ -9572,22 +9572,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>918</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>95749</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>95749</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>95749</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -9607,22 +9607,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -9642,22 +9642,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>1285</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>153154</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>153154</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>153154</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -9689,107 +9689,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30022</t>
+          <t>9804</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23508</t>
+          <t>6921</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37974</t>
+          <t>12530</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>55003</t>
+          <t>13307</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>45771</t>
+          <t>10762</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>65850</t>
+          <t>16615</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>34,61%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>28,8%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>41,44%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>135</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>85025</t>
+          <t>23112</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>71673</t>
+          <t>19490</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>97602</t>
+          <t>27724</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>30,31%</t>
+          <t>7,84%</t>
         </is>
       </c>
     </row>
@@ -9802,107 +9802,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>951</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>133120</t>
+          <t>160688</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>125168</t>
+          <t>157962</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>139634</t>
+          <t>163571</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>81,6%</t>
+          <t>94,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>76,72%</t>
+          <t>92,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>85,59%</t>
+          <t>95,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>960</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>103905</t>
+          <t>169721</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>93058</t>
+          <t>166413</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>113137</t>
+          <t>172266</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>65,39%</t>
+          <t>92,73%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>58,56%</t>
+          <t>90,92%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>71,2%</t>
+          <t>94,12%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>1911</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>237026</t>
+          <t>330408</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>224449</t>
+          <t>325796</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>250378</t>
+          <t>334030</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>73,6%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>69,69%</t>
+          <t>92,16%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>77,74%</t>
+          <t>94,49%</t>
         </is>
       </c>
     </row>
@@ -9915,22 +9915,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -9950,22 +9950,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>1042</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -9985,22 +9985,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>2046</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -10032,107 +10032,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5310</t>
+          <t>1582</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2630</t>
+          <t>746</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8823</t>
+          <t>2814</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>30456</t>
+          <t>11565</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>23419</t>
+          <t>8983</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>39411</t>
+          <t>14433</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>32,25%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>24,8%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>41,73%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>80</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>35766</t>
+          <t>13147</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>28157</t>
+          <t>10447</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>45992</t>
+          <t>16427</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>24,14%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>31,04%</t>
+          <t>8,25%</t>
         </is>
       </c>
     </row>
@@ -10145,107 +10145,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>437</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>48399</t>
+          <t>72211</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>44886</t>
+          <t>70979</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>51079</t>
+          <t>73047</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>90,11%</t>
+          <t>97,86%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>83,57%</t>
+          <t>96,19%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,1%</t>
+          <t>98,99%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>675</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>63985</t>
+          <t>113687</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>55030</t>
+          <t>110819</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>71022</t>
+          <t>116269</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>67,75%</t>
+          <t>90,77%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>58,27%</t>
+          <t>88,48%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>75,2%</t>
+          <t>92,83%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>1112</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>112384</t>
+          <t>185898</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>102158</t>
+          <t>182618</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>119993</t>
+          <t>188598</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>75,86%</t>
+          <t>93,39%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>68,96%</t>
+          <t>91,75%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>80,99%</t>
+          <t>94,75%</t>
         </is>
       </c>
     </row>
@@ -10258,22 +10258,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>448</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -10293,22 +10293,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>744</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -10328,22 +10328,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>1192</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -10375,107 +10375,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5315</t>
+          <t>1009</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2318</t>
+          <t>348</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10905</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>15197</t>
+          <t>9862</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10940</t>
+          <t>7708</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>20537</t>
+          <t>12918</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>32,89%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>65</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>20512</t>
+          <t>10871</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>15142</t>
+          <t>8230</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>27989</t>
+          <t>14036</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>28,28%</t>
+          <t>7,9%</t>
         </is>
       </c>
     </row>
@@ -10488,107 +10488,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>262</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>31232</t>
+          <t>54164</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>25642</t>
+          <t>52287</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>34229</t>
+          <t>54825</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>85,46%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>70,16%</t>
+          <t>94,77%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>93,66%</t>
+          <t>99,37%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>630</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>47244</t>
+          <t>112537</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>41904</t>
+          <t>109481</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>51501</t>
+          <t>114691</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>75,66%</t>
+          <t>91,94%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>67,11%</t>
+          <t>89,45%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>82,48%</t>
+          <t>93,7%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>892</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>78476</t>
+          <t>166700</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>70999</t>
+          <t>163535</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>83846</t>
+          <t>169341</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>79,28%</t>
+          <t>93,88%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>71,72%</t>
+          <t>92,1%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>84,7%</t>
+          <t>95,37%</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -10636,22 +10636,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>691</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>62441</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>62441</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>62441</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -10671,22 +10671,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>957</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>98988</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>98988</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>98988</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -10718,107 +10718,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>105562</t>
+          <t>26942</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>91821</t>
+          <t>22965</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>120214</t>
+          <t>31289</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>319</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>211659</t>
+          <t>53695</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>194311</t>
+          <t>47293</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>229776</t>
+          <t>60110</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>28,12%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>473</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>317221</t>
+          <t>80637</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>292244</t>
+          <t>73504</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>340873</t>
+          <t>88517</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>5,94%</t>
         </is>
       </c>
     </row>
@@ -10831,107 +10831,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1375</t>
+          <t>3827</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>574176</t>
+          <t>678359</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>559524</t>
+          <t>674012</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>587917</t>
+          <t>682336</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>84,47%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>82,31%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>86,49%</t>
+          <t>96,74%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1345</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>540974</t>
+          <t>730316</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>522857</t>
+          <t>723901</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>558322</t>
+          <t>736718</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>71,88%</t>
+          <t>93,15%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>69,47%</t>
+          <t>92,33%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>74,18%</t>
+          <t>93,97%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>2720</t>
+          <t>7904</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1115150</t>
+          <t>1408675</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1091498</t>
+          <t>1400795</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1140127</t>
+          <t>1415808</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>77,85%</t>
+          <t>94,59%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>76,2%</t>
+          <t>94,06%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>79,6%</t>
+          <t>95,06%</t>
         </is>
       </c>
     </row>
@@ -10944,22 +10944,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>679738</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>679738</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>679738</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -10979,22 +10979,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1854</t>
+          <t>4396</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>752633</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>752633</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>752633</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -11014,22 +11014,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>3489</t>
+          <t>8377</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1432371</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1432371</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1432371</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
